--- a/Hub_Config_Today_R.1.0.0.1.xlsx
+++ b/Hub_Config_Today_R.1.0.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56017566-CF45-418E-B849-5D6DE2B4561E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D1293B-A2E4-49F4-8E02-C18601DDBD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5DE87B08-52E2-4A72-8116-7B900E5A3827}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Left</t>
   </si>
@@ -79,6 +79,36 @@
   </si>
   <si>
     <t>X- No Wbt, No Free , No Tag -X</t>
+  </si>
+  <si>
+    <t>T&amp;C</t>
+  </si>
+  <si>
+    <t>Not on Free</t>
+  </si>
+  <si>
+    <t>A group along with an Arena</t>
+  </si>
+  <si>
+    <t>Should be Sealed from Outside - No Oil/Water Leakage</t>
+  </si>
+  <si>
+    <t>1 Cow - 1 Owner - 1 Snake - 1 Shop - A group</t>
+  </si>
+  <si>
+    <t>VS9</t>
+  </si>
+  <si>
+    <t>Must Adher to X-11-X ,Ni Curd Not to be Included</t>
+  </si>
+  <si>
+    <t>WL RPF</t>
+  </si>
+  <si>
+    <t>MabaF</t>
+  </si>
+  <si>
+    <t>Violators or On Free</t>
   </si>
 </sst>
 </file>
@@ -250,31 +280,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,244 +630,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2055E5A1-02B2-434D-8FC5-1CBBD6C60D2F}">
-  <dimension ref="B1:T12"/>
+  <dimension ref="B1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="18" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="1.7109375" customWidth="1"/>
     <col min="18" max="18" width="2.140625" customWidth="1"/>
     <col min="19" max="19" width="3.7109375" customWidth="1"/>
+    <col min="22" max="22" width="3.28515625" customWidth="1"/>
+    <col min="23" max="23" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1">
-        <v>22</v>
-      </c>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="8"/>
-    </row>
-    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17">
         <v>39</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="7"/>
+      <c r="F2" s="9"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="T2" s="9"/>
+      <c r="W2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="11"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="17">
+      <c r="R3" s="8"/>
+      <c r="S3" s="13">
         <v>1</v>
       </c>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="19"/>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="9"/>
+      <c r="W4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
       <c r="Q5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="17" t="s">
+      <c r="R5" s="8"/>
+      <c r="S5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T5" s="9"/>
+      <c r="W5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20"/>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J7" s="9"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="T6" s="9"/>
+      <c r="W6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="7"/>
       <c r="K7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="11"/>
       <c r="M7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="11"/>
       <c r="O7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J9" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="W7" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="T8" s="9"/>
+      <c r="W8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="7"/>
       <c r="K9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="11"/>
       <c r="M9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="11"/>
       <c r="O9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J10" s="9"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="13"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="7"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="10"/>
       <c r="K11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="14"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="15"/>
+      <c r="N11" s="11"/>
       <c r="O11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="16"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O12" s="6"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="1"/>
+      <c r="M13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
